--- a/raw_data/unused_data/25_02_22/20220225-165519_processed.xlsx
+++ b/raw_data/unused_data/25_02_22/20220225-165519_processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surreyac-my.sharepoint.com/personal/og00095_surrey_ac_uk/Documents/individual project/data/26_02_22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surreyac-my.sharepoint.com/personal/og00095_surrey_ac_uk/Documents/individual project/data/raw_data/unused_data/25_02_22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:40009_{1EF1B159-3A84-44B6-BB40-F8391D6EAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1467E9E3-6CE6-48E8-B1D4-A3B5EF2A0909}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:40009_{1EF1B159-3A84-44B6-BB40-F8391D6EAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E610EB0-3F5E-4622-AC43-87C8776E52B6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20220225-165519_processed" sheetId="1" r:id="rId1"/>
@@ -3255,6 +3255,8 @@
         <c:axId val="1586387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200000"/>
+          <c:min val="600000.00000000012"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11784,16 +11786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11820,16 +11822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11857,15 +11859,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11892,16 +11894,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11928,16 +11930,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12265,15 +12267,15 @@
   <dimension ref="A1:N209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -12305,7 +12307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>68</v>
       </c>
@@ -12339,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>69</v>
       </c>
@@ -12385,7 +12387,7 @@
         <v>-5.3055057572816366E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70</v>
       </c>
@@ -12427,7 +12429,7 @@
         <v>3.1127586793339539</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>71</v>
       </c>
@@ -12465,7 +12467,7 @@
         <v>-1.5414614909551413E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>72</v>
       </c>
@@ -12503,7 +12505,7 @@
         <v>-2.0820376779737606E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>73</v>
       </c>
@@ -12541,7 +12543,7 @@
         <v>-2.6050632556602081E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>74</v>
       </c>
@@ -12579,7 +12581,7 @@
         <v>-1.3458929858534035E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>75</v>
       </c>
@@ -12617,7 +12619,7 @@
         <v>3.4207554419179859E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>76</v>
       </c>
@@ -12655,7 +12657,7 @@
         <v>0.10421061884060534</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>77</v>
       </c>
@@ -12693,7 +12695,7 @@
         <v>0.14356990015730764</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>78</v>
       </c>
@@ -12731,7 +12733,7 @@
         <v>0.15874555015730765</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>79</v>
       </c>
@@ -12769,7 +12771,7 @@
         <v>9.9390470157307648E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80</v>
       </c>
@@ -12807,7 +12809,7 @@
         <v>4.4175530157307644E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>81</v>
       </c>
@@ -12845,7 +12847,7 @@
         <v>-4.0734231728338371E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>82</v>
       </c>
@@ -12883,7 +12885,7 @@
         <v>-0.17173313359137246</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>83</v>
       </c>
@@ -12921,7 +12923,7 @@
         <v>-0.26613404367220994</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>84</v>
       </c>
@@ -12959,7 +12961,7 @@
         <v>-0.4607890288760591</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>-0.45998584785249669</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>86</v>
       </c>
@@ -13035,7 +13037,7 @@
         <v>-0.55895719586801251</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>87</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>-0.58330512612276075</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>88</v>
       </c>
@@ -13111,7 +13113,7 @@
         <v>-0.76112528770433929</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>89</v>
       </c>
@@ -13149,7 +13151,7 @@
         <v>-0.95685512942111672</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90</v>
       </c>
@@ -13187,7 +13189,7 @@
         <v>-0.95544694351159354</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>91</v>
       </c>
@@ -13225,7 +13227,7 @@
         <v>-1.1565728721832413</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>92</v>
       </c>
@@ -13263,7 +13265,7 @@
         <v>-1.2670898759730578</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>93</v>
       </c>
@@ -13301,7 +13303,7 @@
         <v>-1.5243284483782573</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>94</v>
       </c>
@@ -13339,7 +13341,7 @@
         <v>-1.52600331863547</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>-1.6126087489351151</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>96</v>
       </c>
@@ -13415,7 +13417,7 @@
         <v>-1.7263703759376909</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>97</v>
       </c>
@@ -13453,7 +13455,7 @@
         <v>-1.7692686414136278</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>98</v>
       </c>
@@ -13491,7 +13493,7 @@
         <v>-1.7164886394491896</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>99</v>
       </c>
@@ -13529,7 +13531,7 @@
         <v>-1.669365374102342</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>100</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>-1.6416716494873218</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>101</v>
       </c>
@@ -13605,7 +13607,7 @@
         <v>-1.6353355323364076</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>102</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>-1.5364119420437086</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>103</v>
       </c>
@@ -13681,7 +13683,7 @@
         <v>-1.5375186520437085</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>104</v>
       </c>
@@ -13719,7 +13721,7 @@
         <v>-1.5680667700677018</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>105</v>
       </c>
@@ -13757,7 +13759,7 @@
         <v>-1.5884836818453603</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>106</v>
       </c>
@@ -13795,7 +13797,7 @@
         <v>-1.7962152149664246</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>107</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>-1.817973960582222</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>108</v>
       </c>
@@ -13871,7 +13873,7 @@
         <v>-1.8038476446237459</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>109</v>
       </c>
@@ -13909,7 +13911,7 @@
         <v>-1.7724165294355356</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>110</v>
       </c>
@@ -13947,7 +13949,7 @@
         <v>-1.6963529912822999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>111</v>
       </c>
@@ -13985,7 +13987,7 @@
         <v>-1.6241863850979426</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>112</v>
       </c>
@@ -14023,7 +14025,7 @@
         <v>-1.6089567070012545</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>113</v>
       </c>
@@ -14061,7 +14063,7 @@
         <v>-1.6467072370012545</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>114</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v>-1.5501076270012546</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>115</v>
       </c>
@@ -14137,7 +14139,7 @@
         <v>-1.6173110670012547</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>116</v>
       </c>
@@ -14175,7 +14177,7 @@
         <v>-1.5992729537348325</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>117</v>
       </c>
@@ -14213,7 +14215,7 @@
         <v>-1.5911231236770287</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>118</v>
       </c>
@@ -14251,7 +14253,7 @@
         <v>-1.7497766359287499</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>119</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>-1.827921750443005</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>120</v>
       </c>
@@ -14327,7 +14329,7 @@
         <v>-1.8634899611489968</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>121</v>
       </c>
@@ -14365,7 +14367,7 @@
         <v>-1.9115201351362838</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>122</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>-2.1642043255522401</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>123</v>
       </c>
@@ -14441,7 +14443,7 @@
         <v>-2.163344964739768</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>124</v>
       </c>
@@ -14479,7 +14481,7 @@
         <v>-2.2202379026384964</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>125</v>
       </c>
@@ -14517,7 +14519,7 @@
         <v>-2.2052350082825294</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>126</v>
       </c>
@@ -14555,7 +14557,7 @@
         <v>-2.1803385501463706</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>127</v>
       </c>
@@ -14593,7 +14595,7 @@
         <v>-2.1676570713463477</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128</v>
       </c>
@@ -14631,7 +14633,7 @@
         <v>-2.1789268050924551</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>129</v>
       </c>
@@ -14669,7 +14671,7 @@
         <v>-2.3133808116934289</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>130</v>
       </c>
@@ -14707,7 +14709,7 @@
         <v>-2.2902754862150418</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>131</v>
       </c>
@@ -14745,7 +14747,7 @@
         <v>-2.3151284896060504</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>132</v>
       </c>
@@ -14783,7 +14785,7 @@
         <v>-2.3895787289037722</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>133</v>
       </c>
@@ -14821,7 +14823,7 @@
         <v>-2.4492033640661894</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>134</v>
       </c>
@@ -14859,7 +14861,7 @@
         <v>-2.4485696509256099</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>135</v>
       </c>
@@ -14897,7 +14899,7 @@
         <v>-2.5183203387135702</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>136</v>
       </c>
@@ -14935,7 +14937,7 @@
         <v>-2.5955005576273344</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>137</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>-2.5980972562393667</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>138</v>
       </c>
@@ -15011,7 +15013,7 @@
         <v>-2.6393135799086349</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>139</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>-2.7285844003122479</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>140</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>-2.7559828485458691</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>141</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>-2.7719481565635178</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>142</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>-2.8629422555571069</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>143</v>
       </c>
@@ -15201,7 +15203,7 @@
         <v>-2.9034331636449737</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>144</v>
       </c>
@@ -15239,7 +15241,7 @@
         <v>-2.9434315310274313</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>145</v>
       </c>
@@ -15277,7 +15279,7 @@
         <v>-3.0219410408223006</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>146</v>
       </c>
@@ -15315,7 +15317,7 @@
         <v>-3.056607780014263</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>147</v>
       </c>
@@ -15353,7 +15355,7 @@
         <v>-3.113610275966245</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>148</v>
       </c>
@@ -15391,7 +15393,7 @@
         <v>-3.1893377141963719</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>149</v>
       </c>
@@ -15429,7 +15431,7 @@
         <v>-3.2669503851777661</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>150</v>
       </c>
@@ -15467,7 +15469,7 @@
         <v>-3.3176126677500717</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>151</v>
       </c>
@@ -15505,7 +15507,7 @@
         <v>-3.3737739726835612</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>152</v>
       </c>
@@ -15543,7 +15545,7 @@
         <v>-3.4421592744624148</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>153</v>
       </c>
@@ -15581,7 +15583,7 @@
         <v>-3.5067573160735726</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>154</v>
       </c>
@@ -15619,7 +15621,7 @@
         <v>-3.567790809142644</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>155</v>
       </c>
@@ -15657,7 +15659,7 @@
         <v>-3.6344660504783999</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>156</v>
       </c>
@@ -15695,7 +15697,7 @@
         <v>-3.6806217373002243</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>157</v>
       </c>
@@ -15733,7 +15735,7 @@
         <v>-3.739366724605877</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>158</v>
       </c>
@@ -15771,7 +15773,7 @@
         <v>-3.8171888768308877</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>159</v>
       </c>
@@ -15809,7 +15811,7 @@
         <v>-3.8798218316280817</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>160</v>
       </c>
@@ -15847,7 +15849,7 @@
         <v>-3.945592638767569</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>161</v>
       </c>
@@ -15885,7 +15887,7 @@
         <v>-3.9927429046085443</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>162</v>
       </c>
@@ -15923,7 +15925,7 @@
         <v>-4.0598522097160696</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>163</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>-4.1377515304386847</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>164</v>
       </c>
@@ -15999,7 +16001,7 @@
         <v>-4.2036834591830159</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>165</v>
       </c>
@@ -16037,7 +16039,7 @@
         <v>-4.2687247552878036</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>166</v>
       </c>
@@ -16075,7 +16077,7 @@
         <v>-4.3216935288770015</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>167</v>
       </c>
@@ -16113,7 +16115,7 @@
         <v>-4.4086153252554432</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>168</v>
       </c>
@@ -16151,7 +16153,7 @@
         <v>-4.4604503072770427</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>169</v>
       </c>
@@ -16189,7 +16191,7 @@
         <v>-4.5220650299981431</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>170</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>-4.5848842932449285</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>171</v>
       </c>
@@ -16265,7 +16267,7 @@
         <v>-4.6329938720899051</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>172</v>
       </c>
@@ -16303,7 +16305,7 @@
         <v>-4.7013422833103773</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>173</v>
       </c>
@@ -16341,7 +16343,7 @@
         <v>-4.7765254058120616</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>174</v>
       </c>
@@ -16379,7 +16381,7 @@
         <v>-4.8431182413194911</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>175</v>
       </c>
@@ -16417,7 +16419,7 @@
         <v>-4.9086680623196512</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>176</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>-4.962910537850636</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>177</v>
       </c>
@@ -16493,7 +16495,7 @@
         <v>-5.0504247168078438</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>178</v>
       </c>
@@ -16531,7 +16533,7 @@
         <v>-5.1049718665732389</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>179</v>
       </c>
@@ -16569,7 +16571,7 @@
         <v>-5.1256858123706204</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>180</v>
       </c>
@@ -16607,7 +16609,7 @@
         <v>-5.1009593139454612</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>181</v>
       </c>
@@ -16645,7 +16647,7 @@
         <v>-5.0796263765920324</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>182</v>
       </c>
@@ -16683,7 +16685,7 @@
         <v>-5.0842230119549283</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>183</v>
       </c>
@@ -16721,7 +16723,7 @@
         <v>-5.236133566750067</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>184</v>
       </c>
@@ -16759,7 +16761,7 @@
         <v>-5.1368750373193537</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>185</v>
       </c>
@@ -16797,7 +16799,7 @@
         <v>-5.436044556867996</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>186</v>
       </c>
@@ -16835,7 +16837,7 @@
         <v>-5.7012325606822163</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>187</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>-5.8082260816933875</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>188</v>
       </c>
@@ -16911,7 +16913,7 @@
         <v>-5.4893609429405696</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>189</v>
       </c>
@@ -16949,7 +16951,7 @@
         <v>-5.3652197359996165</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>190</v>
       </c>
@@ -16987,7 +16989,7 @@
         <v>-5.4264338235017844</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>191</v>
       </c>
@@ -17025,7 +17027,7 @@
         <v>-5.4791302414777556</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>192</v>
       </c>
@@ -17063,7 +17065,7 @@
         <v>-5.6205773157845202</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>193</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>-5.561270506358504</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>194</v>
       </c>
@@ -17139,7 +17141,7 @@
         <v>-5.7389813308546209</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>195</v>
       </c>
@@ -17177,7 +17179,7 @@
         <v>-5.7581081510898029</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>196</v>
       </c>
@@ -17215,7 +17217,7 @@
         <v>-5.7748460529772263</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>197</v>
       </c>
@@ -17253,7 +17255,7 @@
         <v>-5.9535173664649266</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>198</v>
       </c>
@@ -17291,7 +17293,7 @@
         <v>-5.9160601550325369</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>199</v>
       </c>
@@ -17329,7 +17331,7 @@
         <v>-5.720196819511604</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>200</v>
       </c>
@@ -17367,7 +17369,7 @@
         <v>-5.8290175665635235</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>201</v>
       </c>
@@ -17405,7 +17407,7 @@
         <v>-5.7836612143457717</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>202</v>
       </c>
@@ -17443,7 +17445,7 @@
         <v>-5.9071390711418355</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>203</v>
       </c>
@@ -17481,7 +17483,7 @@
         <v>-5.8580501999265984</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>204</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>-5.7839792783180144</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>205</v>
       </c>
@@ -17557,7 +17559,7 @@
         <v>-5.8265767349512547</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>206</v>
       </c>
@@ -17595,7 +17597,7 @@
         <v>-5.8654179231701686</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>207</v>
       </c>
@@ -17633,7 +17635,7 @@
         <v>-5.821784437513406</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>208</v>
       </c>
@@ -17671,7 +17673,7 @@
         <v>-5.8509884272444221</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>209</v>
       </c>
@@ -17709,7 +17711,7 @@
         <v>-5.7730806260190706</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>210</v>
       </c>
@@ -17747,7 +17749,7 @@
         <v>-5.8328136734296994</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>211</v>
       </c>
@@ -17785,7 +17787,7 @@
         <v>-5.8872061440328052</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>212</v>
       </c>
@@ -17823,7 +17825,7 @@
         <v>-5.8926302603258032</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>213</v>
       </c>
@@ -17861,7 +17863,7 @@
         <v>-5.9735077236425598</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>214</v>
       </c>
@@ -17899,7 +17901,7 @@
         <v>-5.9604144831709904</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>215</v>
       </c>
@@ -17937,7 +17939,7 @@
         <v>-5.9295882927527188</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>216</v>
       </c>
@@ -17975,7 +17977,7 @@
         <v>-5.9020607600314854</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>217</v>
       </c>
@@ -18013,7 +18015,7 @@
         <v>-5.8574802854546881</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>218</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>-5.9088810698723533</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>219</v>
       </c>
@@ -18089,7 +18091,7 @@
         <v>-5.8645631862480316</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>220</v>
       </c>
@@ -18127,7 +18129,7 @@
         <v>-5.9024342678216826</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>221</v>
       </c>
@@ -18165,7 +18167,7 @@
         <v>-5.9362777160229321</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>222</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>-5.9530458152446046</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>223</v>
       </c>
@@ -18241,7 +18243,7 @@
         <v>-5.961822144765617</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>224</v>
       </c>
@@ -18279,7 +18281,7 @@
         <v>-5.9858407260427873</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>225</v>
       </c>
@@ -18317,7 +18319,7 @@
         <v>-6.0522700493393264</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>226</v>
       </c>
@@ -18355,7 +18357,7 @@
         <v>-6.1107201401498648</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>227</v>
       </c>
@@ -18393,7 +18395,7 @@
         <v>-6.1082113052186848</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>228</v>
       </c>
@@ -18431,7 +18433,7 @@
         <v>-6.0693988711147222</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>229</v>
       </c>
@@ -18469,7 +18471,7 @@
         <v>-6.0719909396656826</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>230</v>
       </c>
@@ -18507,7 +18509,7 @@
         <v>-6.1421786376582181</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>231</v>
       </c>
@@ -18545,7 +18547,7 @@
         <v>-6.2040052400487253</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>232</v>
       </c>
@@ -18583,7 +18585,7 @@
         <v>-6.2381200854626888</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>233</v>
       </c>
@@ -18621,7 +18623,7 @@
         <v>-6.2387636239934201</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>234</v>
       </c>
@@ -18659,7 +18661,7 @@
         <v>-6.2232747166877012</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>235</v>
       </c>
@@ -18697,7 +18699,7 @@
         <v>-6.2154844337946082</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>236</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>-6.2087908655682877</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>237</v>
       </c>
@@ -18773,7 +18775,7 @@
         <v>-6.1872179877743365</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>238</v>
       </c>
@@ -18811,7 +18813,7 @@
         <v>-6.2132317299675615</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>239</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>-6.207190690878873</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>240</v>
       </c>
@@ -18887,7 +18889,7 @@
         <v>-6.2062631315242385</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>241</v>
       </c>
@@ -18925,7 +18927,7 @@
         <v>-6.2054097400777604</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>242</v>
       </c>
@@ -18963,7 +18965,7 @@
         <v>-6.1920953897176965</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>243</v>
       </c>
@@ -19001,7 +19003,7 @@
         <v>-6.1944956459211227</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>244</v>
       </c>
@@ -19039,7 +19041,7 @@
         <v>-6.1983519115223746</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>245</v>
       </c>
@@ -19077,7 +19079,7 @@
         <v>-6.2033189053062205</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>246</v>
       </c>
@@ -19115,7 +19117,7 @@
         <v>-6.2067685498889773</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>247</v>
       </c>
@@ -19153,7 +19155,7 @@
         <v>-6.2244626974274277</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>248</v>
       </c>
@@ -19191,7 +19193,7 @@
         <v>-6.2325251906956813</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>249</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>-6.2334871793046664</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>250</v>
       </c>
@@ -19267,7 +19269,7 @@
         <v>-6.2416445466090291</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>251</v>
       </c>
@@ -19305,7 +19307,7 @@
         <v>-6.2490743257391683</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>252</v>
       </c>
@@ -19343,7 +19345,7 @@
         <v>-6.2598809342899173</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>253</v>
       </c>
@@ -19381,7 +19383,7 @@
         <v>-6.2594238600434924</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>254</v>
       </c>
@@ -19419,7 +19421,7 @@
         <v>-6.2550426662558305</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>255</v>
       </c>
@@ -19457,7 +19459,7 @@
         <v>-6.2603663406165824</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>256</v>
       </c>
@@ -19495,7 +19497,7 @@
         <v>-6.2651929921494967</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>257</v>
       </c>
@@ -19533,7 +19535,7 @@
         <v>-6.2678548640567779</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>258</v>
       </c>
@@ -19571,7 +19573,7 @@
         <v>-6.2680436937300525</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>259</v>
       </c>
@@ -19609,7 +19611,7 @@
         <v>-6.271109444133665</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>260</v>
       </c>
@@ -19647,7 +19649,7 @@
         <v>-6.2737060539989846</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>261</v>
       </c>
@@ -19685,7 +19687,7 @@
         <v>-6.276263065356174</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>262</v>
       </c>
@@ -19723,7 +19725,7 @@
         <v>-6.27430477339436</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>263</v>
       </c>
@@ -19761,7 +19763,7 @@
         <v>-6.2809293593063611</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>264</v>
       </c>
@@ -19799,7 +19801,7 @@
         <v>-6.2816961260782529</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>265</v>
       </c>
@@ -19837,7 +19839,7 @@
         <v>-6.283508676073378</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>266</v>
       </c>
@@ -19875,7 +19877,7 @@
         <v>-6.2850972585170526</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>267</v>
       </c>
@@ -19913,7 +19915,7 @@
         <v>-6.2796099034780655</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>268</v>
       </c>
@@ -19951,7 +19953,7 @@
         <v>-6.2884714812304878</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>269</v>
       </c>
@@ -19989,7 +19991,7 @@
         <v>-6.294291879116976</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>270</v>
       </c>
@@ -20027,7 +20029,7 @@
         <v>-6.3005110819359187</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>271</v>
       </c>
@@ -20065,7 +20067,7 @@
         <v>-6.3063224363887471</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>272</v>
       </c>
@@ -20103,7 +20105,7 @@
         <v>-6.303854529875867</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>273</v>
       </c>
@@ -20141,7 +20143,7 @@
         <v>-6.3067986540910272</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>274</v>
       </c>
@@ -20179,7 +20181,7 @@
         <v>-6.3088728014937274</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>275</v>
       </c>
